--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_18-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_18-49.xlsx
@@ -101,6 +101,9 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -338,7 +344,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7778:0</t>
+    <t>7777:0</t>
   </si>
   <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
@@ -359,6 +365,12 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -390,6 +402,12 @@
   </si>
   <si>
     <t>21:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>كريم جلايسوليد 40ملل وسط</t>
@@ -1292,17 +1310,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1318,13 +1336,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1336,7 +1354,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1344,17 +1362,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1370,17 +1388,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1396,17 +1414,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1422,17 +1440,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1440,7 +1458,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1448,17 +1466,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1474,17 +1492,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1492,7 +1510,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1500,17 +1518,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1526,17 +1544,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1552,17 +1570,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1578,17 +1596,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1604,13 +1622,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1622,7 +1640,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1630,17 +1648,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1648,7 +1666,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1656,17 +1674,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1682,17 +1700,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1700,7 +1718,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1708,13 +1726,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1734,13 +1752,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1766,7 +1784,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1786,17 +1804,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1812,17 +1830,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1830,7 +1848,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1838,17 +1856,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1856,7 +1874,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1864,13 +1882,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>55.670000000000002</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1890,17 +1908,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>190</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1916,13 +1934,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15.300000000000001</v>
+        <v>44</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1942,13 +1960,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>85.560000000000002</v>
+        <v>190</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1968,13 +1986,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>39</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2000,7 +2018,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>50.960000000000001</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2026,7 +2044,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2046,17 +2064,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2064,7 +2082,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2072,17 +2090,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2090,7 +2108,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2098,13 +2116,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>27.329999999999998</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2116,7 +2134,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2124,17 +2142,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2150,17 +2168,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>277.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2176,17 +2194,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2202,13 +2220,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2228,13 +2246,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2254,17 +2272,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2272,7 +2290,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2280,17 +2298,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2298,7 +2316,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2306,17 +2324,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2332,17 +2350,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2358,17 +2376,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2376,7 +2394,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2390,7 +2408,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2402,7 +2420,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2410,13 +2428,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2428,7 +2446,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2436,17 +2454,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2454,7 +2472,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2462,7 +2480,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2488,17 +2506,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2514,17 +2532,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2540,17 +2558,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2558,7 +2576,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2566,17 +2584,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2592,17 +2610,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2618,13 +2636,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2644,13 +2662,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>65.75</v>
+        <v>30</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2670,17 +2688,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2702,7 +2720,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>249.47999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2728,7 +2746,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2748,17 +2766,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>80</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2774,17 +2792,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2800,17 +2818,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2826,17 +2844,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2852,17 +2870,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2878,17 +2896,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2904,17 +2922,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2930,17 +2948,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>2.5</v>
+        <v>52</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2948,7 +2966,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2956,13 +2974,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2974,7 +2992,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2982,17 +3000,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3008,17 +3026,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3034,17 +3052,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3060,17 +3078,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>58.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3078,7 +3096,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3086,17 +3104,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3104,7 +3122,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3112,17 +3130,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>12</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3130,7 +3148,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3138,13 +3156,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3156,7 +3174,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3164,17 +3182,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3182,7 +3200,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3190,17 +3208,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3216,13 +3234,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3234,7 +3252,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3242,13 +3260,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3268,13 +3286,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3294,13 +3312,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>19.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3320,7 +3338,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -3338,7 +3356,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3346,13 +3364,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3364,7 +3382,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3372,13 +3390,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3390,7 +3408,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3398,13 +3416,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3416,7 +3434,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3424,13 +3442,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3438,37 +3456,141 @@
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
-      <c r="K98" s="10">
-        <v>5897.3500000000004</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c t="s" r="A99" s="11">
-        <v>135</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c t="s" r="F99" s="12">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
         <v>136</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c t="s" r="I99" s="14">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
         <v>137</v>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>8</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
+        <v>138</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>38</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>40</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>139</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>8</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>20</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>140</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>59</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>30</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>6002.3500000000004</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
+        <v>141</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>142</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>143</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3758,10 +3880,22 @@
     <mergeCell ref="B97:G97"/>
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:N99"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
